--- a/cmip6/models/cnrm-esm2-1/cmip6_cnrm-cerfacs_cnrm-esm2-1_ocean.xlsx
+++ b/cmip6/models/cnrm-esm2-1/cmip6_cnrm-cerfacs_cnrm-esm2-1_ocean.xlsx
@@ -46,7 +46,7 @@
     <t>CNRM-ESM2-1</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Ocean</t>

--- a/cmip6/models/cnrm-esm2-1/cmip6_cnrm-cerfacs_cnrm-esm2-1_ocean.xlsx
+++ b/cmip6/models/cnrm-esm2-1/cmip6_cnrm-cerfacs_cnrm-esm2-1_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="810">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -214,10 +214,10 @@
     <t>OGCM</t>
   </si>
   <si>
-    <t>Slab ocean</t>
-  </si>
-  <si>
-    <t>Mixed layer ocean</t>
+    <t>slab ocean</t>
+  </si>
+  <si>
+    <t>mixed layer ocean</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -274,7 +274,7 @@
     <t>W-velocity</t>
   </si>
   <si>
-    <t>SSH</t>
+    <t>SSH: Sea Surface Height</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -430,7 +430,7 @@
     <t>6000 years BP</t>
   </si>
   <si>
-    <t>LGM</t>
+    <t>LGM: Last Glacial Maximum</t>
   </si>
   <si>
     <t>Pliocene</t>
@@ -845,16 +845,16 @@
     <t>S-coordinate</t>
   </si>
   <si>
-    <t>Isopycnic - sigma 0</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 2</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 4</t>
-  </si>
-  <si>
-    <t>Isopycnic - other</t>
+    <t>Isopycnic - sigma 0: Density referenced to the surface</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 2: Density referenced to 2000 m</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 4: Density referenced to 4000 m</t>
+  </si>
+  <si>
+    <t>Isopycnic - other: Other density-based coordinate</t>
   </si>
   <si>
     <t>Hybrid / Z+S</t>
@@ -998,133 +998,136 @@
     <t>cmip6.ocean.timestepping_framework.diurnal_cycle</t>
   </si>
   <si>
+    <t>None: No diurnal cycle in ocean</t>
+  </si>
+  <si>
+    <t>Via coupling: Diurnal cycle via coupling frequency</t>
+  </si>
+  <si>
+    <t>Specific treatment: Specific treament</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Tracers</t>
+  </si>
+  <si>
+    <t>Properties of tracers time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Tracers time stepping scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
+  </si>
+  <si>
+    <t>Leap-frog + Asselin filter: Leap-frog scheme with Asselin filter</t>
+  </si>
+  <si>
+    <t>Leap-frog + Periodic Euler: Leap-frog scheme with Periodic Euler</t>
+  </si>
+  <si>
+    <t>Predictor-corrector: Predictor-corrector scheme</t>
+  </si>
+  <si>
+    <t>Runge-Kutta 2: Runge-Kutta 2 scheme</t>
+  </si>
+  <si>
+    <t>AM3-LF: AM3-LF such as used in ROMS</t>
+  </si>
+  <si>
+    <t>Forward-backward: Forward-backward scheme</t>
+  </si>
+  <si>
+    <t>Forward operator: Forward operator scheme</t>
+  </si>
+  <si>
+    <t>3.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Time Step</t>
+  </si>
+  <si>
+    <t>Tracers time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.tracers.time_step</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Baroclinic Dynamics</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics in ocean</t>
+  </si>
+  <si>
+    <t>3.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.type</t>
+  </si>
+  <si>
+    <t>Preconditioned conjugate gradient</t>
+  </si>
+  <si>
+    <t>Sub cyling: Sub cycling relative to tracers</t>
+  </si>
+  <si>
+    <t>3.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1.3 </t>
+  </si>
+  <si>
+    <t>Baroclinic time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.time_step</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Barotropic</t>
+  </si>
+  <si>
+    <t>Barotropic time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.4.1.1 *</t>
+  </si>
+  <si>
+    <t>Splitting</t>
+  </si>
+  <si>
+    <t>Time splitting method</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Via coupling</t>
-  </si>
-  <si>
-    <t>Specific treatment</t>
-  </si>
-  <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Tracers</t>
-  </si>
-  <si>
-    <t>Properties of tracers time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Tracers time stepping scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
-  </si>
-  <si>
-    <t>Leap-frog + Asselin filter</t>
-  </si>
-  <si>
-    <t>Leap-frog + Periodic Euler</t>
-  </si>
-  <si>
-    <t>Predictor-corrector</t>
-  </si>
-  <si>
-    <t>Runge-Kutta 2</t>
-  </si>
-  <si>
-    <t>AM3-LF</t>
-  </si>
-  <si>
-    <t>Forward-backward</t>
-  </si>
-  <si>
-    <t>Forward operator</t>
-  </si>
-  <si>
-    <t>3.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Time Step</t>
-  </si>
-  <si>
-    <t>Tracers time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.tracers.time_step</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Baroclinic Dynamics</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics in ocean</t>
-  </si>
-  <si>
-    <t>3.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics type</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.type</t>
-  </si>
-  <si>
-    <t>Preconditioned conjugate gradient</t>
-  </si>
-  <si>
-    <t>Sub cyling</t>
-  </si>
-  <si>
-    <t>3.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1.3 </t>
-  </si>
-  <si>
-    <t>Baroclinic time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.time_step</t>
-  </si>
-  <si>
-    <t>3.4.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Barotropic</t>
-  </si>
-  <si>
-    <t>Barotropic time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.4.1.1 *</t>
-  </si>
-  <si>
-    <t>Splitting</t>
-  </si>
-  <si>
-    <t>Time splitting method</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
-  </si>
-  <si>
-    <t>Split explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
+    <t>split explicit</t>
+  </si>
+  <si>
+    <t>implicit</t>
   </si>
   <si>
     <t xml:space="preserve">3.4.1.2 </t>
@@ -1385,10 +1388,13 @@
     <t>cmip6.ocean.lateral_physics.scheme</t>
   </si>
   <si>
-    <t>Eddy active</t>
-  </si>
-  <si>
-    <t>Eddy admitting</t>
+    <t>None: No transient eddies in ocean</t>
+  </si>
+  <si>
+    <t>Eddy active: Full resolution of eddies</t>
+  </si>
+  <si>
+    <t>Eddy admitting: Some eddy activity permitted by resolution</t>
   </si>
   <si>
     <t>5.1.2</t>
@@ -1436,10 +1442,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
   </si>
   <si>
-    <t>Harmonic</t>
-  </si>
-  <si>
-    <t>Bi-harmonic</t>
+    <t>Harmonic: Second order</t>
+  </si>
+  <si>
+    <t>Bi-harmonic: Fourth order</t>
   </si>
   <si>
     <t>5.1.2.3 *</t>
@@ -1454,10 +1460,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
   </si>
   <si>
-    <t>Second order</t>
-  </si>
-  <si>
-    <t>Higher order</t>
+    <t>Second order: Second order</t>
+  </si>
+  <si>
+    <t>Higher order: Higher order</t>
   </si>
   <si>
     <t>Flux limiter</t>
@@ -1679,7 +1685,7 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
   </si>
   <si>
-    <t>GM</t>
+    <t>GM: Gent &amp; McWilliams</t>
   </si>
   <si>
     <t xml:space="preserve">5.2.4.2 </t>
@@ -3101,20 +3107,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3125,10 +3131,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3136,7 +3142,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -3147,10 +3153,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3163,10 +3169,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3174,10 +3180,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3185,10 +3191,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3196,10 +3202,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -3212,10 +3218,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3223,10 +3229,10 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3239,10 +3245,10 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3250,10 +3256,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -3266,10 +3272,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3277,10 +3283,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -3293,10 +3299,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3304,10 +3310,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
@@ -3320,20 +3326,20 @@
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>138</v>
@@ -3344,10 +3350,10 @@
         <v>59</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
@@ -3356,16 +3362,16 @@
         <v>91</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="AF48" s="6" t="s">
         <v>65</v>
@@ -3373,20 +3379,20 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>138</v>
@@ -3397,22 +3403,22 @@
         <v>59</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="AD56" s="6" t="s">
         <v>65</v>
@@ -3420,20 +3426,20 @@
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>233</v>
@@ -3444,22 +3450,22 @@
         <v>59</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11"/>
       <c r="AA64" s="6" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AD64" s="6" t="s">
         <v>65</v>
@@ -3467,10 +3473,10 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -3478,10 +3484,10 @@
         <v>139</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -3489,10 +3495,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3500,10 +3506,10 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -3516,10 +3522,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3527,10 +3533,10 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -3543,23 +3549,23 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -3567,19 +3573,19 @@
         <v>59</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AC86" s="6" t="s">
         <v>65</v>
@@ -3587,10 +3593,10 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
@@ -3598,22 +3604,22 @@
         <v>59</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="AD90" s="6" t="s">
         <v>65</v>
@@ -3621,10 +3627,10 @@
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3632,10 +3638,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -5643,13 +5649,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>65</v>
@@ -5657,7 +5663,7 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>340</v>
@@ -5668,10 +5674,10 @@
         <v>192</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5679,23 +5685,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5703,10 +5709,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -5759,20 +5765,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5783,10 +5789,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5794,7 +5800,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -5805,10 +5811,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5821,20 +5827,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>138</v>
@@ -5845,27 +5851,27 @@
         <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -5873,10 +5879,10 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
@@ -5884,10 +5890,10 @@
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
@@ -5895,10 +5901,10 @@
         <v>139</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -5906,23 +5912,23 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -5930,10 +5936,10 @@
         <v>192</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -5941,10 +5947,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -5952,10 +5958,10 @@
         <v>139</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -5963,10 +5969,10 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -5974,10 +5980,10 @@
         <v>118</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -5985,7 +5991,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -5996,10 +6002,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -6007,10 +6013,10 @@
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6018,10 +6024,10 @@
         <v>59</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6032,16 +6038,16 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>65</v>
@@ -6049,10 +6055,10 @@
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6060,10 +6066,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6071,20 +6077,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6095,10 +6101,10 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
@@ -6106,10 +6112,10 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -6117,10 +6123,10 @@
         <v>139</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -6171,20 +6177,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6195,10 +6201,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6206,7 +6212,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -6217,10 +6223,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -6233,7 +6239,7 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>233</v>
@@ -6244,43 +6250,43 @@
         <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>323</v>
+        <v>453</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
@@ -6288,28 +6294,28 @@
         <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>65</v>
@@ -6317,10 +6323,10 @@
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
@@ -6328,19 +6334,19 @@
         <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>65</v>
@@ -6348,10 +6354,10 @@
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
@@ -6359,22 +6365,22 @@
         <v>59</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>65</v>
@@ -6382,20 +6388,20 @@
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>138</v>
@@ -6406,22 +6412,22 @@
         <v>59</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AD39" s="6" t="s">
         <v>65</v>
@@ -6429,10 +6435,10 @@
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
@@ -6440,10 +6446,10 @@
         <v>192</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6451,10 +6457,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6462,10 +6468,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -6473,10 +6479,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6484,10 +6490,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -6495,10 +6501,10 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -6506,10 +6512,10 @@
         <v>139</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6517,23 +6523,23 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
@@ -6541,10 +6547,10 @@
         <v>139</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -6552,10 +6558,10 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
@@ -6563,10 +6569,10 @@
         <v>139</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6574,23 +6580,23 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
@@ -6598,28 +6604,28 @@
         <v>59</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="11"/>
       <c r="AA75" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF75" s="6" t="s">
         <v>65</v>
@@ -6627,10 +6633,10 @@
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
@@ -6638,19 +6644,19 @@
         <v>59</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AC79" s="6" t="s">
         <v>65</v>
@@ -6658,10 +6664,10 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
@@ -6669,22 +6675,22 @@
         <v>59</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AD83" s="6" t="s">
         <v>65</v>
@@ -6692,20 +6698,20 @@
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>138</v>
@@ -6716,22 +6722,22 @@
         <v>59</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11"/>
       <c r="AA91" s="6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AD91" s="6" t="s">
         <v>65</v>
@@ -6739,10 +6745,10 @@
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -6750,10 +6756,10 @@
         <v>192</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -6761,10 +6767,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -6772,10 +6778,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -6783,10 +6789,10 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -6794,10 +6800,10 @@
         <v>192</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -6805,10 +6811,10 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -6816,10 +6822,10 @@
         <v>139</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -6827,20 +6833,20 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>138</v>
@@ -6851,16 +6857,16 @@
         <v>59</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="11"/>
       <c r="AA115" s="6" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AB115" s="6" t="s">
         <v>65</v>
@@ -6868,10 +6874,10 @@
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
@@ -6879,10 +6885,10 @@
         <v>192</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -6890,10 +6896,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -6901,10 +6907,10 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
@@ -6912,10 +6918,10 @@
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -6923,10 +6929,10 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
@@ -7009,20 +7015,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7033,10 +7039,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7044,7 +7050,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -7055,10 +7061,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7071,23 +7077,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
@@ -7095,10 +7101,10 @@
         <v>139</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7106,20 +7112,20 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>138</v>
@@ -7130,37 +7136,37 @@
         <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AI27" s="6" t="s">
         <v>65</v>
@@ -7168,10 +7174,10 @@
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
@@ -7179,10 +7185,10 @@
         <v>118</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7190,10 +7196,10 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
@@ -7201,10 +7207,10 @@
         <v>192</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7212,10 +7218,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7223,10 +7229,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
@@ -7234,20 +7240,20 @@
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>138</v>
@@ -7258,37 +7264,37 @@
         <v>59</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11"/>
       <c r="AA47" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AI47" s="6" t="s">
         <v>65</v>
@@ -7296,10 +7302,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -7307,10 +7313,10 @@
         <v>118</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7318,10 +7324,10 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -7329,10 +7335,10 @@
         <v>192</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7340,10 +7346,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7351,10 +7357,10 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -7362,23 +7368,23 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
@@ -7386,22 +7392,22 @@
         <v>59</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11"/>
       <c r="AA67" s="6" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AD67" s="6" t="s">
         <v>65</v>
@@ -7409,10 +7415,10 @@
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7420,10 +7426,10 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
@@ -7431,10 +7437,10 @@
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -7442,10 +7448,10 @@
         <v>139</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7453,10 +7459,10 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7464,10 +7470,10 @@
         <v>139</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7475,20 +7481,20 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>138</v>
@@ -7499,31 +7505,31 @@
         <v>59</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AG87" s="6" t="s">
         <v>65</v>
@@ -7531,10 +7537,10 @@
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
@@ -7542,10 +7548,10 @@
         <v>192</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7553,10 +7559,10 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
@@ -7564,10 +7570,10 @@
         <v>139</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7575,10 +7581,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7586,10 +7592,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
@@ -7597,20 +7603,20 @@
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>138</v>
@@ -7621,31 +7627,31 @@
         <v>59</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AE107" s="6" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AF107" s="6" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AG107" s="6" t="s">
         <v>65</v>
@@ -7653,10 +7659,10 @@
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
@@ -7664,10 +7670,10 @@
         <v>192</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -7675,10 +7681,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -7686,10 +7692,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -7697,10 +7703,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -7708,10 +7714,10 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -7787,20 +7793,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7811,10 +7817,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7822,7 +7828,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -7833,10 +7839,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7849,20 +7855,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>233</v>
@@ -7873,34 +7879,34 @@
         <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AH19" s="6" t="s">
         <v>65</v>
@@ -7908,10 +7914,10 @@
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
@@ -7919,10 +7925,10 @@
         <v>139</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -7930,20 +7936,20 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>53</v>
@@ -7954,10 +7960,10 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
@@ -7970,10 +7976,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -7981,19 +7987,19 @@
         <v>59</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11"/>
       <c r="AA36" s="6" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>65</v>
@@ -8001,10 +8007,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -8012,10 +8018,10 @@
         <v>192</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8023,10 +8029,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8034,10 +8040,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">

--- a/cmip6/models/cnrm-esm2-1/cmip6_cnrm-cerfacs_cnrm-esm2-1_ocean.xlsx
+++ b/cmip6/models/cnrm-esm2-1/cmip6_cnrm-cerfacs_cnrm-esm2-1_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="808">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -214,10 +214,10 @@
     <t>OGCM</t>
   </si>
   <si>
-    <t>slab ocean</t>
-  </si>
-  <si>
-    <t>mixed layer ocean</t>
+    <t>Slab ocean</t>
+  </si>
+  <si>
+    <t>Mixed layer ocean</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -274,7 +274,7 @@
     <t>W-velocity</t>
   </si>
   <si>
-    <t>SSH: Sea Surface Height</t>
+    <t>SSH</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -430,7 +430,7 @@
     <t>6000 years BP</t>
   </si>
   <si>
-    <t>LGM: Last Glacial Maximum</t>
+    <t>LGM</t>
   </si>
   <si>
     <t>Pliocene</t>
@@ -845,16 +845,16 @@
     <t>S-coordinate</t>
   </si>
   <si>
-    <t>Isopycnic - sigma 0: Density referenced to the surface</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 2: Density referenced to 2000 m</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 4: Density referenced to 4000 m</t>
-  </si>
-  <si>
-    <t>Isopycnic - other: Other density-based coordinate</t>
+    <t>Isopycnic - sigma 0</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 2</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 4</t>
+  </si>
+  <si>
+    <t>Isopycnic - other</t>
   </si>
   <si>
     <t>Hybrid / Z+S</t>
@@ -998,13 +998,13 @@
     <t>cmip6.ocean.timestepping_framework.diurnal_cycle</t>
   </si>
   <si>
-    <t>None: No diurnal cycle in ocean</t>
-  </si>
-  <si>
-    <t>Via coupling: Diurnal cycle via coupling frequency</t>
-  </si>
-  <si>
-    <t>Specific treatment: Specific treament</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Via coupling</t>
+  </si>
+  <si>
+    <t>Specific treatment</t>
   </si>
   <si>
     <t>3.2.1</t>
@@ -1025,25 +1025,25 @@
     <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
   </si>
   <si>
-    <t>Leap-frog + Asselin filter: Leap-frog scheme with Asselin filter</t>
-  </si>
-  <si>
-    <t>Leap-frog + Periodic Euler: Leap-frog scheme with Periodic Euler</t>
-  </si>
-  <si>
-    <t>Predictor-corrector: Predictor-corrector scheme</t>
-  </si>
-  <si>
-    <t>Runge-Kutta 2: Runge-Kutta 2 scheme</t>
-  </si>
-  <si>
-    <t>AM3-LF: AM3-LF such as used in ROMS</t>
-  </si>
-  <si>
-    <t>Forward-backward: Forward-backward scheme</t>
-  </si>
-  <si>
-    <t>Forward operator: Forward operator scheme</t>
+    <t>Leap-frog + Asselin filter</t>
+  </si>
+  <si>
+    <t>Leap-frog + Periodic Euler</t>
+  </si>
+  <si>
+    <t>Predictor-corrector</t>
+  </si>
+  <si>
+    <t>Runge-Kutta 2</t>
+  </si>
+  <si>
+    <t>AM3-LF</t>
+  </si>
+  <si>
+    <t>Forward-backward</t>
+  </si>
+  <si>
+    <t>Forward operator</t>
   </si>
   <si>
     <t>3.2.1.2 *</t>
@@ -1079,7 +1079,7 @@
     <t>Preconditioned conjugate gradient</t>
   </si>
   <si>
-    <t>Sub cyling: Sub cycling relative to tracers</t>
+    <t>Sub cyling</t>
   </si>
   <si>
     <t>3.3.1.2 *</t>
@@ -1121,13 +1121,10 @@
     <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>split explicit</t>
-  </si>
-  <si>
-    <t>implicit</t>
+    <t>Split explicit</t>
+  </si>
+  <si>
+    <t>Implicit</t>
   </si>
   <si>
     <t xml:space="preserve">3.4.1.2 </t>
@@ -1388,13 +1385,10 @@
     <t>cmip6.ocean.lateral_physics.scheme</t>
   </si>
   <si>
-    <t>None: No transient eddies in ocean</t>
-  </si>
-  <si>
-    <t>Eddy active: Full resolution of eddies</t>
-  </si>
-  <si>
-    <t>Eddy admitting: Some eddy activity permitted by resolution</t>
+    <t>Eddy active</t>
+  </si>
+  <si>
+    <t>Eddy admitting</t>
   </si>
   <si>
     <t>5.1.2</t>
@@ -1442,10 +1436,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
   </si>
   <si>
-    <t>Harmonic: Second order</t>
-  </si>
-  <si>
-    <t>Bi-harmonic: Fourth order</t>
+    <t>Harmonic</t>
+  </si>
+  <si>
+    <t>Bi-harmonic</t>
   </si>
   <si>
     <t>5.1.2.3 *</t>
@@ -1460,10 +1454,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
   </si>
   <si>
-    <t>Second order: Second order</t>
-  </si>
-  <si>
-    <t>Higher order: Higher order</t>
+    <t>Second order</t>
+  </si>
+  <si>
+    <t>Higher order</t>
   </si>
   <si>
     <t>Flux limiter</t>
@@ -1685,7 +1679,7 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
   </si>
   <si>
-    <t>GM: Gent &amp; McWilliams</t>
+    <t>GM</t>
   </si>
   <si>
     <t xml:space="preserve">5.2.4.2 </t>
@@ -3107,20 +3101,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3131,10 +3125,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3142,7 +3136,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -3153,10 +3147,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3169,10 +3163,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3180,10 +3174,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3191,10 +3185,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3202,10 +3196,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -3218,10 +3212,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3229,10 +3223,10 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3245,10 +3239,10 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3256,10 +3250,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -3272,10 +3266,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3283,10 +3277,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -3299,10 +3293,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3310,10 +3304,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
@@ -3326,20 +3320,20 @@
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>138</v>
@@ -3350,10 +3344,10 @@
         <v>59</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
@@ -3362,16 +3356,16 @@
         <v>91</v>
       </c>
       <c r="AB48" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="AC48" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="AD48" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="AC48" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="AD48" s="6" t="s">
-        <v>762</v>
-      </c>
       <c r="AE48" s="6" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="AF48" s="6" t="s">
         <v>65</v>
@@ -3379,20 +3373,20 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>138</v>
@@ -3403,22 +3397,22 @@
         <v>59</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AD56" s="6" t="s">
         <v>65</v>
@@ -3426,20 +3420,20 @@
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>233</v>
@@ -3450,22 +3444,22 @@
         <v>59</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11"/>
       <c r="AA64" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="AB64" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="AC64" s="6" t="s">
         <v>777</v>
-      </c>
-      <c r="AB64" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="AC64" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="AD64" s="6" t="s">
         <v>65</v>
@@ -3473,10 +3467,10 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -3484,10 +3478,10 @@
         <v>139</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -3495,10 +3489,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3506,10 +3500,10 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -3522,10 +3516,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3533,10 +3527,10 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -3549,23 +3543,23 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -3573,19 +3567,19 @@
         <v>59</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="AC86" s="6" t="s">
         <v>65</v>
@@ -3593,10 +3587,10 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
@@ -3604,22 +3598,22 @@
         <v>59</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AD90" s="6" t="s">
         <v>65</v>
@@ -3627,10 +3621,10 @@
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3638,10 +3632,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -5649,13 +5643,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB51" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="AB51" s="6" t="s">
+      <c r="AC51" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="AC51" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>65</v>
@@ -5663,7 +5657,7 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>340</v>
@@ -5674,10 +5668,10 @@
         <v>192</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>368</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5685,23 +5679,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>370</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>373</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5709,10 +5703,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -5765,20 +5759,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>377</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5789,10 +5783,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5800,7 +5794,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -5811,10 +5805,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>384</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5827,20 +5821,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>386</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>138</v>
@@ -5851,27 +5845,27 @@
         <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>390</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB19" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>394</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -5879,10 +5873,10 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>396</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
@@ -5890,10 +5884,10 @@
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
@@ -5901,10 +5895,10 @@
         <v>139</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>400</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -5912,23 +5906,23 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>402</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -5936,10 +5930,10 @@
         <v>192</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>407</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -5947,10 +5941,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -5958,10 +5952,10 @@
         <v>139</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>411</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -5969,10 +5963,10 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -5980,10 +5974,10 @@
         <v>118</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>415</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -5991,7 +5985,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -6002,10 +5996,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>418</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -6013,10 +6007,10 @@
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>420</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6024,10 +6018,10 @@
         <v>59</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>422</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6038,16 +6032,16 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB52" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="AB52" s="6" t="s">
+      <c r="AC52" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="AC52" s="6" t="s">
+      <c r="AD52" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="AD52" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>65</v>
@@ -6055,10 +6049,10 @@
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>428</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6066,10 +6060,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>430</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6077,20 +6071,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>432</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6101,10 +6095,10 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>436</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
@@ -6112,10 +6106,10 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -6123,10 +6117,10 @@
         <v>139</v>
       </c>
       <c r="B67" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>439</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -6177,20 +6171,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>441</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6201,10 +6195,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>445</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6212,7 +6206,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -6223,10 +6217,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>448</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -6239,7 +6233,7 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>233</v>
@@ -6250,43 +6244,43 @@
         <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>451</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC15" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
@@ -6294,28 +6288,28 @@
         <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC23" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="AB23" s="6" t="s">
+      <c r="AD23" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="AC23" s="6" t="s">
+      <c r="AE23" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>65</v>
@@ -6323,10 +6317,10 @@
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
@@ -6334,19 +6328,19 @@
         <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>65</v>
@@ -6354,10 +6348,10 @@
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
@@ -6365,22 +6359,22 @@
         <v>59</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC31" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="AB31" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="AC31" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>65</v>
@@ -6388,20 +6382,20 @@
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>138</v>
@@ -6412,22 +6406,22 @@
         <v>59</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AC39" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="AB39" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="AC39" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="AD39" s="6" t="s">
         <v>65</v>
@@ -6435,10 +6429,10 @@
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
@@ -6446,10 +6440,10 @@
         <v>192</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6457,10 +6451,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6468,10 +6462,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -6479,10 +6473,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6490,10 +6484,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -6501,10 +6495,10 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -6512,10 +6506,10 @@
         <v>139</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6523,23 +6517,23 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
@@ -6547,10 +6541,10 @@
         <v>139</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -6558,10 +6552,10 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
@@ -6569,10 +6563,10 @@
         <v>139</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6580,23 +6574,23 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
@@ -6604,28 +6598,28 @@
         <v>59</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="11"/>
       <c r="AA75" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB75" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC75" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="AB75" s="6" t="s">
+      <c r="AD75" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="AC75" s="6" t="s">
+      <c r="AE75" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="AD75" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="AE75" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="AF75" s="6" t="s">
         <v>65</v>
@@ -6633,10 +6627,10 @@
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
@@ -6644,19 +6638,19 @@
         <v>59</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AC79" s="6" t="s">
         <v>65</v>
@@ -6664,10 +6658,10 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
@@ -6675,22 +6669,22 @@
         <v>59</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB83" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC83" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="AB83" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="AC83" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="AD83" s="6" t="s">
         <v>65</v>
@@ -6698,20 +6692,20 @@
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>138</v>
@@ -6722,22 +6716,22 @@
         <v>59</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11"/>
       <c r="AA91" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AB91" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AC91" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="AB91" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="AC91" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="AD91" s="6" t="s">
         <v>65</v>
@@ -6745,10 +6739,10 @@
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -6756,10 +6750,10 @@
         <v>192</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -6767,10 +6761,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -6778,10 +6772,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -6789,10 +6783,10 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -6800,10 +6794,10 @@
         <v>192</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -6811,10 +6805,10 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -6822,10 +6816,10 @@
         <v>139</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -6833,20 +6827,20 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>138</v>
@@ -6857,16 +6851,16 @@
         <v>59</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="11"/>
       <c r="AA115" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AB115" s="6" t="s">
         <v>65</v>
@@ -6874,10 +6868,10 @@
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
@@ -6885,10 +6879,10 @@
         <v>192</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -6896,10 +6890,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -6907,10 +6901,10 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
@@ -6918,10 +6912,10 @@
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -6929,10 +6923,10 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
@@ -7015,20 +7009,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7039,10 +7033,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7050,7 +7044,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -7061,10 +7055,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7077,23 +7071,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
@@ -7101,10 +7095,10 @@
         <v>139</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7112,20 +7106,20 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>138</v>
@@ -7136,37 +7130,37 @@
         <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="AC27" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="AB27" s="6" t="s">
+      <c r="AD27" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="AC27" s="6" t="s">
+      <c r="AE27" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="AD27" s="6" t="s">
+      <c r="AF27" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="AE27" s="6" t="s">
+      <c r="AG27" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="AF27" s="6" t="s">
+      <c r="AH27" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="AG27" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="AH27" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="AI27" s="6" t="s">
         <v>65</v>
@@ -7174,10 +7168,10 @@
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
@@ -7185,10 +7179,10 @@
         <v>118</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7196,10 +7190,10 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
@@ -7207,10 +7201,10 @@
         <v>192</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7218,10 +7212,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7229,10 +7223,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
@@ -7240,20 +7234,20 @@
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>138</v>
@@ -7264,37 +7258,37 @@
         <v>59</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11"/>
       <c r="AA47" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="AC47" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="AB47" s="6" t="s">
+      <c r="AD47" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="AC47" s="6" t="s">
+      <c r="AE47" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="AD47" s="6" t="s">
+      <c r="AF47" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="AE47" s="6" t="s">
+      <c r="AG47" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="AF47" s="6" t="s">
+      <c r="AH47" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="AG47" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="AH47" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="AI47" s="6" t="s">
         <v>65</v>
@@ -7302,10 +7296,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -7313,10 +7307,10 @@
         <v>118</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7324,10 +7318,10 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -7335,10 +7329,10 @@
         <v>192</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7346,10 +7340,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7357,10 +7351,10 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -7368,23 +7362,23 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
@@ -7392,22 +7386,22 @@
         <v>59</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11"/>
       <c r="AA67" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB67" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="AC67" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="AB67" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="AC67" s="6" t="s">
-        <v>630</v>
       </c>
       <c r="AD67" s="6" t="s">
         <v>65</v>
@@ -7415,10 +7409,10 @@
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7426,10 +7420,10 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
@@ -7437,10 +7431,10 @@
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -7448,10 +7442,10 @@
         <v>139</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7459,10 +7453,10 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7470,10 +7464,10 @@
         <v>139</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7481,20 +7475,20 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>138</v>
@@ -7505,31 +7499,31 @@
         <v>59</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AC87" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="AD87" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="AD87" s="6" t="s">
+      <c r="AE87" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="AF87" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="AE87" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF87" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="AG87" s="6" t="s">
         <v>65</v>
@@ -7537,10 +7531,10 @@
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
@@ -7548,10 +7542,10 @@
         <v>192</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7559,10 +7553,10 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
@@ -7570,10 +7564,10 @@
         <v>139</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7581,10 +7575,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7592,10 +7586,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
@@ -7603,20 +7597,20 @@
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>138</v>
@@ -7627,31 +7621,31 @@
         <v>59</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AC107" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="AD107" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="AD107" s="6" t="s">
+      <c r="AE107" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="AF107" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="AE107" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF107" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="AG107" s="6" t="s">
         <v>65</v>
@@ -7659,10 +7653,10 @@
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
@@ -7670,10 +7664,10 @@
         <v>192</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -7681,10 +7675,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -7692,10 +7686,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -7703,10 +7697,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -7714,10 +7708,10 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -7793,20 +7787,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7817,10 +7811,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7828,7 +7822,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -7839,10 +7833,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7855,20 +7849,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>233</v>
@@ -7879,34 +7873,34 @@
         <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="AC19" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="AB19" s="6" t="s">
+      <c r="AD19" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="AC19" s="6" t="s">
+      <c r="AE19" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AF19" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="AE19" s="6" t="s">
+      <c r="AG19" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="AF19" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="AG19" s="6" t="s">
-        <v>696</v>
       </c>
       <c r="AH19" s="6" t="s">
         <v>65</v>
@@ -7914,10 +7908,10 @@
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
@@ -7925,10 +7919,10 @@
         <v>139</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -7936,20 +7930,20 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>53</v>
@@ -7960,10 +7954,10 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
@@ -7976,10 +7970,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -7987,19 +7981,19 @@
         <v>59</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11"/>
       <c r="AA36" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>65</v>
@@ -8007,10 +8001,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -8018,10 +8012,10 @@
         <v>192</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8029,10 +8023,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8040,10 +8034,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">

--- a/cmip6/models/cnrm-esm2-1/cmip6_cnrm-cerfacs_cnrm-esm2-1_ocean.xlsx
+++ b/cmip6/models/cnrm-esm2-1/cmip6_cnrm-cerfacs_cnrm-esm2-1_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="826">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -166,6 +166,9 @@
     <t>cmip6.ocean.key_properties.name</t>
   </si>
   <si>
+    <t>Nucleus for European Modelling of the Ocean version 3.2 (OPA)</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -235,15 +238,15 @@
     <t>cmip6.ocean.key_properties.basic_approximations</t>
   </si>
   <si>
+    <t>Boussinesq</t>
+  </si>
+  <si>
     <t>Primitive equations</t>
   </si>
   <si>
     <t>Non-hydrostatic</t>
   </si>
   <si>
-    <t>Boussinesq</t>
-  </si>
-  <si>
     <t>1.1.1.6 *</t>
   </si>
   <si>
@@ -373,6 +376,9 @@
     <t>cmip6.ocean.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
+    <t>Other: varying</t>
+  </si>
+  <si>
     <t>1.2.1.6 *</t>
   </si>
   <si>
@@ -496,6 +502,9 @@
     <t>cmip6.ocean.key_properties.nonoceanic_waters.isolated_seas</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
@@ -506,6 +515,9 @@
   </si>
   <si>
     <t>cmip6.ocean.key_properties.nonoceanic_waters.river_mouth</t>
+  </si>
+  <si>
+    <t>Kz increase near river mouth (top 20 m)</t>
   </si>
   <si>
     <t>1.5.1</t>
@@ -947,6 +959,9 @@
     <t>cmip6.ocean.grid.discretisation.horizontal.scheme</t>
   </si>
   <si>
+    <t>Other: finite differences</t>
+  </si>
+  <si>
     <t>Finite difference</t>
   </si>
   <si>
@@ -1205,12 +1220,12 @@
     <t>cmip6.ocean.advection.momentum.type</t>
   </si>
   <si>
+    <t>Vector form</t>
+  </si>
+  <si>
     <t>Flux form</t>
   </si>
   <si>
-    <t>Vector form</t>
-  </si>
-  <si>
     <t>4.2.1.2 *</t>
   </si>
   <si>
@@ -1223,6 +1238,9 @@
     <t>cmip6.ocean.advection.momentum.scheme_name</t>
   </si>
   <si>
+    <t>Energy and Enstrophy conserving second order centered</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2.1.3 </t>
   </si>
   <si>
@@ -1289,6 +1307,9 @@
     <t>cmip6.ocean.advection.lateral_tracers.name</t>
   </si>
   <si>
+    <t>Total Variance Dissipation (TVD)</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.3.1.5 </t>
   </si>
   <si>
@@ -1343,6 +1364,9 @@
     <t>cmip6.ocean.advection.vertical_tracers.name</t>
   </si>
   <si>
+    <t>TVD</t>
+  </si>
+  <si>
     <t>4.4.1.2 *</t>
   </si>
   <si>
@@ -1712,6 +1736,9 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.flux_type</t>
   </si>
   <si>
+    <t>Advective flux</t>
+  </si>
+  <si>
     <t>5.2.4.4 *</t>
   </si>
   <si>
@@ -1751,6 +1778,9 @@
     <t>cmip6.ocean.vertical_physics.overview</t>
   </si>
   <si>
+    <t>Tidal mixing answers not relevant (to review)] Bottom intensified tidal mixing (Simmons al. 2004) Specific treatment of tidal mixing in Indonesians seas (Koch Larrouy et al. 2007)</t>
+  </si>
+  <si>
     <t>6.1.2</t>
   </si>
   <si>
@@ -1790,12 +1820,12 @@
     <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.type</t>
   </si>
   <si>
+    <t>Turbulent closure - TKE</t>
+  </si>
+  <si>
     <t>Constant value</t>
   </si>
   <si>
-    <t>Turbulent closure - TKE</t>
-  </si>
-  <si>
     <t>Turbulent closure - KPP</t>
   </si>
   <si>
@@ -1847,6 +1877,9 @@
     <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.background</t>
   </si>
   <si>
+    <t>1.2e-5 m2/s</t>
+  </si>
+  <si>
     <t>6.1.4</t>
   </si>
   <si>
@@ -1913,12 +1946,12 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.details.convection_type</t>
   </si>
   <si>
+    <t>Enhanced vertical diffusion</t>
+  </si>
+  <si>
     <t>Non-penetrative convective adjustment</t>
   </si>
   <si>
-    <t>Enhanced vertical diffusion</t>
-  </si>
-  <si>
     <t>Included in turbulence closure</t>
   </si>
   <si>
@@ -1934,6 +1967,9 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.details.tide_induced_mixing</t>
   </si>
   <si>
+    <t>Baroclinic tides</t>
+  </si>
+  <si>
     <t>6.1.5.3 *</t>
   </si>
   <si>
@@ -2054,6 +2090,9 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.momentum.background</t>
   </si>
   <si>
+    <t>1.2e-4 m2/s</t>
+  </si>
+  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -2099,12 +2138,12 @@
     <t>cmip6.ocean.uplow_boundaries.free_surface.scheme</t>
   </si>
   <si>
+    <t>Linear filtered</t>
+  </si>
+  <si>
     <t>Linear implicit</t>
   </si>
   <si>
-    <t>Linear filtered</t>
-  </si>
-  <si>
     <t>Linear semi-explicit</t>
   </si>
   <si>
@@ -2192,6 +2231,9 @@
     <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.sill_overflow</t>
   </si>
   <si>
+    <t>No specific treatment</t>
+  </si>
+  <si>
     <t>8.1.1</t>
   </si>
   <si>
@@ -2243,6 +2285,9 @@
     <t>cmip6.ocean.boundary_forcing.momentum_flux_correction</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.1.1.5 </t>
   </si>
   <si>
@@ -2291,6 +2336,9 @@
     <t>cmip6.ocean.boundary_forcing.geothermal_heating</t>
   </si>
   <si>
+    <t>Spatial varying</t>
+  </si>
+  <si>
     <t>8.1.2</t>
   </si>
   <si>
@@ -2360,13 +2408,13 @@
     <t>cmip6.ocean.boundary_forcing.tracers.sunlight_penetration.scheme</t>
   </si>
   <si>
+    <t>3 extinction depth</t>
+  </si>
+  <si>
     <t>1 extinction depth</t>
   </si>
   <si>
     <t>2 extinction depth</t>
-  </si>
-  <si>
-    <t>3 extinction depth</t>
   </si>
   <si>
     <t>8.1.4.2 *</t>
@@ -3107,20 +3155,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3131,10 +3179,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3142,10 +3190,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3153,15 +3201,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3169,10 +3217,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>731</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3180,10 +3228,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3191,10 +3239,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>734</v>
+        <v>748</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3202,26 +3250,28 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3229,15 +3279,15 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="178" customHeight="1">
@@ -3245,10 +3295,10 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3256,15 +3306,15 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="178" customHeight="1">
@@ -3272,10 +3322,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3283,15 +3333,15 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="178" customHeight="1">
@@ -3299,10 +3349,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3310,195 +3360,205 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="178" customHeight="1">
-      <c r="B40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
-      <c r="B48" s="11"/>
+      <c r="B48" s="11" t="s">
+        <v>776</v>
+      </c>
       <c r="AA48" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="B56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="AA56" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
+      <c r="B64" s="11" t="s">
+        <v>793</v>
+      </c>
       <c r="AA64" s="6" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3506,15 +3566,15 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="178" customHeight="1">
@@ -3522,10 +3582,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3533,15 +3593,15 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -3549,88 +3609,88 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
       <c r="A85" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="AC86" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="AD90" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3638,10 +3698,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -3771,7 +3831,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD198"/>
+  <dimension ref="A1:XFD203"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3816,14 +3876,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3831,15 +3893,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
@@ -3847,10 +3909,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3858,15 +3920,15 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -3874,55 +3936,57 @@
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
@@ -3931,388 +3995,504 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="AA25" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AD25" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="24" customHeight="1">
+      <c r="B26" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AD25" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
+      <c r="AA26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="AC26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="24" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="10" t="s">
+    </row>
+    <row r="29" spans="1:34" ht="24" customHeight="1">
+      <c r="A29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" ht="24" customHeight="1">
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="24" customHeight="1">
+      <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-      <c r="AA30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB30" s="6" t="s">
+    <row r="31" spans="1:34" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AC30" s="6" t="s">
+      <c r="AA31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AD30" s="6" t="s">
+      <c r="AC31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AE30" s="6" t="s">
+      <c r="AD31" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AF30" s="6" t="s">
+      <c r="AE31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AG30" s="6" t="s">
+      <c r="AF31" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AH30" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="24" customHeight="1">
-      <c r="A33" s="12" t="s">
+      <c r="AG31" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="AH31" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="24" customHeight="1">
+      <c r="B32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH32" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" ht="24" customHeight="1">
+      <c r="B33" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH33" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" ht="24" customHeight="1">
+      <c r="B34" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH34" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" ht="24" customHeight="1">
+      <c r="B35" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH35" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" ht="24" customHeight="1">
+      <c r="A38" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" ht="24" customHeight="1">
-      <c r="B34" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
+    <row r="39" spans="1:34" ht="24" customHeight="1">
+      <c r="B39" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="9" t="s">
+    </row>
+    <row r="41" spans="1:34" ht="24" customHeight="1">
+      <c r="A41" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:32" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="10" t="s">
+    </row>
+    <row r="42" spans="1:34" ht="24" customHeight="1">
+      <c r="A42" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="AA38" s="6" t="s">
+      <c r="C42" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AB38" s="6" t="s">
+    </row>
+    <row r="43" spans="1:34" ht="24" customHeight="1">
+      <c r="B43" s="11"/>
+      <c r="AA43" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AC38" s="6" t="s">
+      <c r="AB43" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AD38" s="6" t="s">
+      <c r="AC43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AE38" s="6" t="s">
+      <c r="AD43" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AF38" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
+      <c r="AE43" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="AF43" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" ht="24" customHeight="1">
+      <c r="A45" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" ht="24" customHeight="1">
-      <c r="A41" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="10" t="s">
+    </row>
+    <row r="46" spans="1:34" ht="24" customHeight="1">
+      <c r="A46" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="AA42" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB42" s="6" t="s">
+      <c r="C46" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" ht="24" customHeight="1">
+      <c r="B47" s="11"/>
+      <c r="AA47" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="AB47" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="24" customHeight="1">
+      <c r="A49" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="10" t="s">
+    </row>
+    <row r="50" spans="1:28" ht="24" customHeight="1">
+      <c r="A50" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" ht="24" customHeight="1">
-      <c r="B46" s="11"/>
-      <c r="AA46" s="6" t="s">
+      <c r="C50" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AB46" s="6" t="s">
+    </row>
+    <row r="51" spans="1:28" ht="24" customHeight="1">
+      <c r="B51" s="11"/>
+      <c r="AA51" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
+      <c r="AB51" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="9" t="s">
+    </row>
+    <row r="53" spans="1:28" ht="24" customHeight="1">
+      <c r="A53" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="10" t="s">
+    </row>
+    <row r="54" spans="1:28" ht="24" customHeight="1">
+      <c r="A54" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-      <c r="AA50" s="6" t="s">
+      <c r="C54" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AB50" s="6" t="s">
+    </row>
+    <row r="55" spans="1:28" ht="24" customHeight="1">
+      <c r="B55" s="11"/>
+      <c r="AA55" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+      <c r="AB55" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="9" t="s">
+    </row>
+    <row r="57" spans="1:28" ht="24" customHeight="1">
+      <c r="A57" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="10" t="s">
+    </row>
+    <row r="58" spans="1:28" ht="24" customHeight="1">
+      <c r="A58" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
-      <c r="AA54" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB54" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="9" t="s">
+    </row>
+    <row r="59" spans="1:28" ht="24" customHeight="1">
+      <c r="B59" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
+      <c r="AA59" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="24" customHeight="1">
+      <c r="A61" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="10" t="s">
+    </row>
+    <row r="62" spans="1:28" ht="24" customHeight="1">
+      <c r="A62" s="14" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" ht="24" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="60" spans="1:28" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
+      <c r="B62" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="24" customHeight="1">
-      <c r="A61" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="10" t="s">
+    <row r="63" spans="1:28" ht="24" customHeight="1">
+      <c r="B63" s="11"/>
+    </row>
+    <row r="65" spans="1:32" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
-    </row>
-    <row r="65" spans="1:32" ht="24" customHeight="1">
-      <c r="A65" s="12" t="s">
+    <row r="66" spans="1:32" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="C66" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1">
-      <c r="B66" s="13" t="s">
+    <row r="67" spans="1:32" ht="24" customHeight="1">
+      <c r="B67" s="11"/>
+    </row>
+    <row r="70" spans="1:32" ht="24" customHeight="1">
+      <c r="A70" s="12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
+      <c r="B70" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="9" t="s">
+    </row>
+    <row r="71" spans="1:32" ht="24" customHeight="1">
+      <c r="B71" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="10" t="s">
+    <row r="73" spans="1:32" ht="24" customHeight="1">
+      <c r="A73" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
-      <c r="AA70" s="6" t="s">
+    <row r="74" spans="1:32" ht="24" customHeight="1">
+      <c r="A74" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AB70" s="6" t="s">
+      <c r="C74" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="AC70" s="6" t="s">
+    </row>
+    <row r="75" spans="1:32" ht="24" customHeight="1">
+      <c r="B75" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AD70" s="6" t="s">
+      <c r="AA75" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB75" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AE70" s="6" t="s">
+      <c r="AC75" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="AF70" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" ht="24" customHeight="1">
-      <c r="A72" s="9" t="s">
+      <c r="AD75" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="AE75" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="73" spans="1:32" ht="24" customHeight="1">
-      <c r="A73" s="14" t="s">
+      <c r="AF75" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" ht="24" customHeight="1">
+      <c r="A77" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="10" t="s">
+    </row>
+    <row r="78" spans="1:32" ht="24" customHeight="1">
+      <c r="A78" s="14" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:32" ht="24" customHeight="1">
-      <c r="B74" s="11"/>
-    </row>
-    <row r="76" spans="1:32" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
+      <c r="B78" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="C78" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="24" customHeight="1">
-      <c r="A77" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" ht="24" customHeight="1">
-      <c r="B78" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" ht="178" customHeight="1">
-      <c r="B79" s="11"/>
+    <row r="79" spans="1:32" ht="24" customHeight="1">
+      <c r="B79" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -4320,61 +4500,61 @@
         <v>44</v>
       </c>
       <c r="B82" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="B83" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="178" customHeight="1">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="12" t="s">
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="C87" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="13" t="s">
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="B88" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="12" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
+      <c r="B91" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="9" t="s">
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="B92" s="13" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="178" customHeight="1">
-      <c r="B92" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -4382,310 +4562,314 @@
         <v>44</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="B96" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="178" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" s="12" t="s">
+      <c r="A100" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>162</v>
       </c>
+      <c r="C100" s="10" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
+      <c r="B101" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="178" customHeight="1">
+      <c r="B102" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B103" s="9" t="s">
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="A105" s="12" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="14" t="s">
+      <c r="B105" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="B106" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="A108" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1">
+      <c r="A109" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="14" t="s">
+      <c r="B109" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="B110" s="11"/>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="A112" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="24" customHeight="1">
+      <c r="A113" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B112" s="10" t="s">
+      <c r="B113" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C113" s="10" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="B114" s="11"/>
     </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="A116" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>177</v>
+      <c r="A117" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="B118" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B120" s="9" t="s">
+      <c r="B118" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="24" customHeight="1">
+      <c r="B119" s="11"/>
+    </row>
+    <row r="122" spans="1:3" ht="24" customHeight="1">
+      <c r="A122" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="24" customHeight="1">
+      <c r="B123" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1">
+      <c r="A125" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="14" t="s">
+    <row r="126" spans="1:3" ht="24" customHeight="1">
+      <c r="A126" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="14" t="s">
+      <c r="B126" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="24" customHeight="1">
+      <c r="B127" s="11"/>
+    </row>
+    <row r="129" spans="1:3" ht="24" customHeight="1">
+      <c r="A129" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="24" customHeight="1">
+      <c r="A130" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="B126" s="11"/>
-    </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="14" t="s">
+      <c r="B130" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="24" customHeight="1">
+      <c r="B131" s="11"/>
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1">
+      <c r="A133" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
+      <c r="A134" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
+      <c r="B134" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C133" s="10" t="s">
+    </row>
+    <row r="135" spans="1:3" ht="24" customHeight="1">
+      <c r="B135" s="11"/>
+    </row>
+    <row r="137" spans="1:3" ht="24" customHeight="1">
+      <c r="A137" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="11"/>
-    </row>
-    <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="9" t="s">
+      <c r="B137" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B136" s="9" t="s">
+    </row>
+    <row r="138" spans="1:3" ht="24" customHeight="1">
+      <c r="A138" s="14" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B137" s="10" t="s">
+      <c r="B138" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C138" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="B138" s="11"/>
-    </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="9" t="s">
+    <row r="139" spans="1:3" ht="24" customHeight="1">
+      <c r="B139" s="11"/>
+    </row>
+    <row r="141" spans="1:3" ht="24" customHeight="1">
+      <c r="A141" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B141" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="A141" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141" s="10" t="s">
+    <row r="142" spans="1:3" ht="24" customHeight="1">
+      <c r="A142" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B142" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C142" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="B142" s="11"/>
-    </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="9" t="s">
+    <row r="143" spans="1:3" ht="24" customHeight="1">
+      <c r="B143" s="11"/>
+    </row>
+    <row r="145" spans="1:3" ht="24" customHeight="1">
+      <c r="A145" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B145" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B145" s="10" t="s">
+    <row r="146" spans="1:3" ht="24" customHeight="1">
+      <c r="A146" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B146" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C146" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="B146" s="11"/>
+    <row r="147" spans="1:3" ht="24" customHeight="1">
+      <c r="B147" s="11"/>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="9" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="13" t="s">
+      <c r="A150" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B150" s="10" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="9" t="s">
+      <c r="C150" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B152" s="9" t="s">
+    </row>
+    <row r="151" spans="1:3" ht="24" customHeight="1">
+      <c r="B151" s="11"/>
+    </row>
+    <row r="154" spans="1:3" ht="24" customHeight="1">
+      <c r="A154" s="12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B153" s="10" t="s">
+      <c r="B154" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C153" s="10" t="s">
+    </row>
+    <row r="155" spans="1:3" ht="24" customHeight="1">
+      <c r="B155" s="13" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="B154" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="178" customHeight="1">
-      <c r="B155" s="11"/>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="9" t="s">
@@ -4708,10 +4892,10 @@
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
       <c r="B159" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="178" customHeight="1">
       <c r="B160" s="11"/>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -4735,7 +4919,7 @@
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="B164" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -4762,63 +4946,63 @@
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="B169" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="B170" s="11"/>
     </row>
+    <row r="172" spans="1:3" ht="24" customHeight="1">
+      <c r="A172" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
-      <c r="A173" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>227</v>
+      <c r="A173" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="24" customHeight="1">
-      <c r="A176" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="177" spans="1:32" ht="24" customHeight="1">
-      <c r="A177" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B177" s="10" t="s">
+      <c r="B174" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="24" customHeight="1">
+      <c r="B175" s="11"/>
+    </row>
+    <row r="178" spans="1:32" ht="24" customHeight="1">
+      <c r="A178" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="B178" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="178" spans="1:32" ht="24" customHeight="1">
-      <c r="B178" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="179" spans="1:32" ht="178" customHeight="1">
-      <c r="B179" s="11"/>
+    <row r="179" spans="1:32" ht="24" customHeight="1">
+      <c r="B179" s="13" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="181" spans="1:32" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="182" spans="1:32" ht="24" customHeight="1">
       <c r="A182" s="14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>234</v>
@@ -4828,57 +5012,57 @@
       </c>
     </row>
     <row r="183" spans="1:32" ht="24" customHeight="1">
-      <c r="B183" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="184" spans="1:32" ht="24" customHeight="1">
+      <c r="B183" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="184" spans="1:32" ht="178" customHeight="1">
       <c r="B184" s="11"/>
-      <c r="AA184" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB184" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC184" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD184" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE184" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF184" s="6" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="186" spans="1:32" ht="24" customHeight="1">
       <c r="A186" s="9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="187" spans="1:32" ht="24" customHeight="1">
       <c r="A187" s="14" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="188" spans="1:32" ht="24" customHeight="1">
-      <c r="B188" s="8" t="s">
-        <v>51</v>
+      <c r="B188" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="189" spans="1:32" ht="24" customHeight="1">
       <c r="B189" s="11"/>
+      <c r="AA189" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB189" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC189" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD189" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE189" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF189" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="191" spans="1:32" ht="24" customHeight="1">
       <c r="A191" s="9" t="s">
@@ -4901,7 +5085,7 @@
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
       <c r="B193" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="24" customHeight="1">
@@ -4917,7 +5101,7 @@
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
       <c r="A197" s="14" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>251</v>
@@ -4927,65 +5111,107 @@
       </c>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
-      <c r="B198" s="11"/>
+      <c r="B198" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="24" customHeight="1">
+      <c r="B199" s="11"/>
+    </row>
+    <row r="201" spans="1:3" ht="24" customHeight="1">
+      <c r="A201" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="24" customHeight="1">
+      <c r="A202" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="24" customHeight="1">
+      <c r="B203" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="18">
+  <dataValidations count="23">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>AA20:AD20</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>AA25:AD25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AH30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>AA38:AF38</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AB42</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
-      <formula1>AA46:AB46</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AB50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>AA54:AB54</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>AA26:AD26</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AH31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>AA32:AH32</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>AA33:AH33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>AA34:AH34</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>AA35:AH35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+      <formula1>AA43:AF43</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
+      <formula1>AA47:AB47</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+      <formula1>AA51:AB51</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>AA55:AB55</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
+      <formula1>AA59:AB59</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>AA70:AF70</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
+      <formula1>AA75:AF75</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B134">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B147">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B184">
-      <formula1>AA184:AF184</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B198">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B189">
+      <formula1>AA189:AF189</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B203">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5009,20 +5235,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5033,10 +5259,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5044,10 +5270,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5055,15 +5281,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -5071,98 +5297,98 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
@@ -5170,123 +5396,125 @@
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>310</v>
+      </c>
       <c r="AA39" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5327,20 +5555,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5351,10 +5579,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5362,10 +5590,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5373,15 +5601,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
@@ -5389,114 +5617,116 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>337</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
@@ -5504,111 +5734,111 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -5616,68 +5846,68 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5685,23 +5915,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5709,10 +5939,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -5765,20 +5995,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5789,10 +6019,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5800,10 +6030,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5811,15 +6041,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -5827,51 +6057,53 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>397</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -5879,32 +6111,34 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -5912,34 +6146,34 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -5947,43 +6181,45 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -5991,7 +6227,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -6002,32 +6238,34 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6038,27 +6276,27 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6066,10 +6304,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6077,20 +6315,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6101,36 +6339,40 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
+      <c r="B64" s="11" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -6177,20 +6419,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6201,10 +6443,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6212,10 +6454,10 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
@@ -6223,15 +6465,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
@@ -6239,228 +6481,238 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>471</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>479</v>
+      </c>
       <c r="AA27" s="6" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>485</v>
+      </c>
       <c r="AA31" s="6" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>494</v>
+      </c>
       <c r="AA39" s="6" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
+      <c r="B43" s="11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6468,10 +6720,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -6479,10 +6731,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6490,10 +6742,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -6501,21 +6753,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6523,56 +6775,58 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
+      <c r="B63" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6580,197 +6834,207 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+      <c r="B75" s="11" t="s">
+        <v>473</v>
+      </c>
       <c r="AA75" s="6" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AF75" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
+      <c r="B79" s="11" t="s">
+        <v>479</v>
+      </c>
       <c r="AA79" s="6" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
+      <c r="B83" s="11" t="s">
+        <v>485</v>
+      </c>
       <c r="AA83" s="6" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AD83" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
+      <c r="B91" s="11" t="s">
+        <v>494</v>
+      </c>
       <c r="AA91" s="6" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
+      <c r="B95" s="11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -6778,10 +7042,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -6789,21 +7053,21 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -6811,21 +7075,21 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -6833,73 +7097,77 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
       <c r="A114" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
-      <c r="B115" s="11"/>
+      <c r="B115" s="11" t="s">
+        <v>560</v>
+      </c>
       <c r="AA115" s="6" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="AB115" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
-      <c r="B119" s="11"/>
+      <c r="B119" s="11">
+        <v>600</v>
+      </c>
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -6907,21 +7175,23 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
-      <c r="B123" s="11"/>
+      <c r="B123" s="11" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -6929,10 +7199,10 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
@@ -7015,20 +7285,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7039,10 +7309,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7050,10 +7320,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7061,50 +7331,52 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7112,83 +7384,85 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>597</v>
+      </c>
       <c r="AA27" s="6" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7196,21 +7470,21 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7218,10 +7492,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7229,94 +7503,98 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>597</v>
+      </c>
       <c r="AA47" s="6" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="AI47" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7324,21 +7602,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7346,10 +7624,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7357,10 +7635,10 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -7368,57 +7646,59 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>639</v>
+      </c>
       <c r="AA67" s="6" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="AD67" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7426,32 +7706,34 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7459,21 +7741,21 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7481,77 +7763,77 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
       <c r="A86" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="AG87" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7559,21 +7841,21 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7581,10 +7863,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7592,88 +7874,90 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
-      <c r="B99" s="11"/>
+      <c r="B99" s="11" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="AE107" s="6" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="AF107" s="6" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="AG107" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -7681,10 +7965,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -7692,10 +7976,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -7703,10 +7987,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -7714,14 +7998,16 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="B119" s="11"/>
+      <c r="B119" s="11" t="s">
+        <v>687</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="15">
@@ -7793,20 +8079,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7817,10 +8103,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7828,10 +8114,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7839,15 +8125,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -7855,80 +8141,82 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>703</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -7936,23 +8224,23 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
@@ -7960,15 +8248,15 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="178" customHeight="1">
@@ -7976,63 +8264,67 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>724</v>
+      </c>
       <c r="AA36" s="6" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="B40" s="11"/>
+      <c r="B40" s="11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8040,19 +8332,21 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="178" customHeight="1">
-      <c r="B45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>734</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">

--- a/cmip6/models/cnrm-esm2-1/cmip6_cnrm-cerfacs_cnrm-esm2-1_ocean.xlsx
+++ b/cmip6/models/cnrm-esm2-1/cmip6_cnrm-cerfacs_cnrm-esm2-1_ocean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moine/Codes/MyDevel_Codes/CMIP6/ES-DOC/received/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seferian/Desktop/ES-DOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4100D9F-6E8C-1D45-9C1E-513F4C051149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7709EFC9-B3CE-9F4D-8528-5E4C6D4CA5A9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31320" windowHeight="17820" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="2240" windowWidth="21980" windowHeight="13860" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="850">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -248,13 +248,6 @@
   </si>
   <si>
     <t>NOTE: Double click to expand if text is too long for cell</t>
-  </si>
-  <si>
-    <t>The ocean component of CNRM-CM6-1/CNRM-ESM2-1 is based on the version 3.6 of NEMO (Nucleus for European Models of the Ocean ; Madec, 2016). It is based on the NOCS-ORCA1 configuration described in details in Danabasoglu et al. (2014). Main differences are highlighted below.
-	In CNRM-CM6-1, NEMO is run on eORCA1 horizontal grid, which is an extension of the ORCA1° tripolar grid already used in CNRM-CM5.1. The eORCA family differs from the ORCA family by the use of two quasi-isotropic bipolar grids south of 67°S instead of the former Mercator grid, which allows for a more realistic representation of the contours of Antarctic ice shelves (Mathiot et al., 2017). In eORCA1, a nominal resolution of 1° is chosen to which a latitudinal grid refinement of 1/3° is added in the tropics.
-	CNRM-CM6-1 resolves ocean dynamics on 75 vertical levels using a vertical z-coordinate with partial step bathymetry formulation (Barnier et al., 2006). The level thickness increases from 1m near the surface to 200 m at a depth of 6000 m. The time step is 30 minutes. At the surface, the model uses the split-explicit non-linear free surface formulation proposed by Shchepetkin and McWilliams (2005), with a variable volume. Seawater thermodynamics uses the equation of state defined in the Thermodynamic Equation of State 2010 (TEOS-10, IOC et al., 2010), with conservative temperature and absolute salinity being then the prognostic variables. 
-	Radiative transfer in the water column is resolved using a chlorophyll-dependent three-waveband scheme as described in Lengaigne et al. (2007) and Mignot et al. (2013), using a seasonal climatology of surface chlorophyll concentration derived from a former 60-year long simulation run with NEMO-PISCES (e.g. Lee et al., 2016). A vertical profile of chlorophyll concentration is extrapolated from surface concentrations.
-	Lateral diffusivity and viscosity are parameterized as in NOCS-ORCA1 (Danabasoglu et al., 2014). Parameterization of vertical mixing is also similar, with two notable exceptions in CNRM-CM6-1: mixing induced by breaking internal waves is parameterized following de Lavergne et al. (2016) and the Fox-Kemper et al. (2011)  submesoscale mixed layer restratification scheme is activated.</t>
   </si>
   <si>
     <t>1.1.1.4 *</t>
@@ -2604,6 +2597,25 @@
   </si>
   <si>
     <t>There is a salinity restoring to WOA salinity except under sea-ice.</t>
+  </si>
+  <si>
+    <t>Séférian2019</t>
+  </si>
+  <si>
+    <t>The sunlight penetration scheme of NEMOv3.6 treats separately the infrared (all but 300-700 nm), the red (]600, 700] nm), the green (]500, 600] nm) and the blue (]600, 700] nm) wavelengths.
+This parameterization assumes that 52 % of the downwelling solar radiation radiation is infrared, the remaining fraction (48 %) is split evenly between the red, green and blue wavelength bands (16 % each). 
+The extinction depth of the infrared wavelength band is fixed in space and time to about 3 m. The extinction depths of the red, green and blue wavelengths are computed interactively from the chlorophyll concentration using the formulation proposed in Morel and Maritorena (2001).
+In CNRM-ESM2-1, the chlorophyll concentrations are taken at each time-step from the marine biogeochemical model PISCESv2-gas.</t>
+  </si>
+  <si>
+    <t>The ocean component of CNRM-ESM2-1 (Séférian et al. 2019) is based on the version 3.6 of NEMO (Nucleus for European Models of the Ocean ; Madec, 2016), called herefter NEMOv3.6. It is based on the NOCS-ORCA1 configuration described in details in Danabasoglu et al. (2014). Main differences are highlighted below.
+	NEMOv3.6 is run on eORCA1 horizontal grid, which is an extension of the ORCA1° tripolar grid already used in CNRM-CM5.1. The eORCA family differs from the ORCA family by the use of two quasi-isotropic bipolar grids south of 67°S instead of the former Mercator grid, which allows for a more realistic representation of the contours of Antarctic ice shelves (Mathiot et al., 2017). In eORCA1, a nominal resolution of 1° is chosen to which a latitudinal grid refinement of 1/3° is added in the tropics.
+	NEMOv3.6 resolves ocean dynamics on 75 vertical levels using a vertical z-coordinate with partial step bathymetry formulation (Barnier et al., 2006). The level thickness increases from 1m near the surface to 200 m at a depth of 6000 m. The time step is 30 minutes. At the surface, the model uses the split-explicit non-linear free surface formulation proposed by Shchepetkin and McWilliams (2005), with a variable volume. Seawater thermodynamics uses the equation of state defined in the Thermodynamic Equation of State 2010 (TEOS-10, IOC et al., 2010), with conservative temperature and absolute salinity being then the prognostic variables. 
+	Radiative transfer in the water column is resolved using a chlorophyll-dependent three-waveband scheme as described in Lengaigne et al. (2007) and Séférian et al. (2019).
+	Lateral diffusivity and viscosity are parameterized as in NOCS-ORCA1 (Danabasoglu et al., 2014). Parameterization of vertical mixing is also similar, with two notable exceptions in CNRM-CM6-1: mixing induced by breaking internal waves is parameterized following de Lavergne et al. (2016) and the Fox-Kemper et al. (2011)  submesoscale mixed layer restratification scheme is activated.</t>
+  </si>
+  <si>
+    <t>1000m^2/s ponderated by the ratio between the local grid size (max(e1t,e2t)) and the domain maximum grid size (max(maxval(e1t),maxval(e2t)))</t>
   </si>
 </sst>
 </file>
@@ -3360,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMK94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView topLeftCell="B73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -3374,20 +3386,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>753</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>49</v>
@@ -3398,20 +3410,20 @@
         <v>50</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>757</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>60</v>
@@ -3422,10 +3434,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>761</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3438,10 +3450,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>763</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3449,23 +3461,23 @@
         <v>50</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>765</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>768</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3473,10 +3485,10 @@
         <v>50</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>770</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -3486,15 +3498,15 @@
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
       <c r="B20" s="12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>772</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3502,10 +3514,10 @@
         <v>50</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>774</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3518,10 +3530,10 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>776</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3529,10 +3541,10 @@
         <v>50</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>778</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -3545,10 +3557,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>780</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3556,10 +3568,10 @@
         <v>50</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>782</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -3569,15 +3581,15 @@
     </row>
     <row r="35" spans="1:32" ht="178" customHeight="1">
       <c r="B35" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>785</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3585,10 +3597,10 @@
         <v>50</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>787</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
@@ -3598,192 +3610,192 @@
     </row>
     <row r="40" spans="1:32" ht="178" customHeight="1">
       <c r="B40" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>790</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
       <c r="A47" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>794</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="B48" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA48" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB48" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="AC48" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="AC48" s="7" t="s">
+      <c r="AD48" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="AD48" s="7" t="s">
-        <v>798</v>
-      </c>
       <c r="AE48" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF48" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>799</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="AA56" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB56" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="AA56" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB56" s="7" t="s">
-        <v>806</v>
-      </c>
       <c r="AC56" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AD56" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>807</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="A63" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>811</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="AA64" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="AA64" s="7" t="s">
+      <c r="AB64" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="AB64" s="7" t="s">
-        <v>815</v>
-      </c>
       <c r="AC64" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AD64" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>816</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>818</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="B68" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>820</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3791,10 +3803,10 @@
         <v>50</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>822</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -3803,14 +3815,16 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="178" customHeight="1">
-      <c r="B73" s="12"/>
+      <c r="B73" s="12" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>824</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3818,10 +3832,10 @@
         <v>50</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>826</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -3834,88 +3848,88 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="B81" s="13" t="s">
         <v>828</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="14" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>831</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
       <c r="A85" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B85" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>833</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="12"/>
       <c r="AA86" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="AB86" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="AB86" s="7" t="s">
-        <v>836</v>
-      </c>
       <c r="AC86" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>837</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B89" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>839</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="12"/>
       <c r="AA90" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="AB90" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="AB90" s="7" t="s">
-        <v>836</v>
-      </c>
       <c r="AC90" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AD90" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>842</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3923,15 +3937,15 @@
         <v>50</v>
       </c>
       <c r="B93" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>844</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="B94" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -3960,10 +3974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK19"/>
+  <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -4008,7 +4022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" s="12" t="s">
         <v>35</v>
       </c>
@@ -4040,7 +4054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="19">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
@@ -4048,19 +4062,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2" ht="18">
       <c r="A18" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="19">
-      <c r="A19" s="12" t="s">
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B20" s="12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4070,7 +4092,7 @@
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B19" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Timestepping Framework,Advection,Lateral Physics,Vertical Physics,Uplow Boundaries,Boundary Forcing"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4088,8 +4110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK203"/>
   <sheetViews>
-    <sheetView topLeftCell="B187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -4190,62 +4212,62 @@
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="12" t="s">
-        <v>64</v>
+        <v>848</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="A19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
       <c r="B20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AA20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB20" s="7" t="s">
+      <c r="AC20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AC20" s="7" t="s">
+      <c r="AD20" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="AD20" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="A23" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
@@ -4255,55 +4277,55 @@
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="B25" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AA25" s="7" t="s">
+      <c r="AB25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AB25" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="AC25" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD25" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="B26" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB26" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AA26" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB26" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="AC26" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD26" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="24" customHeight="1">
       <c r="A28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
@@ -4313,341 +4335,341 @@
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA31" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AA31" s="7" t="s">
+      <c r="AB31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AB31" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC31" s="7" t="s">
+      <c r="AD31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AD31" s="7" t="s">
+      <c r="AE31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AE31" s="7" t="s">
+      <c r="AF31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AF31" s="7" t="s">
+      <c r="AG31" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AG31" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="AH31" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1">
       <c r="B32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC32" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AB32" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC32" s="7" t="s">
+      <c r="AD32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AD32" s="7" t="s">
+      <c r="AE32" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AE32" s="7" t="s">
+      <c r="AF32" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AF32" s="7" t="s">
+      <c r="AG32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AG32" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="AH32" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="B33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD33" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AA33" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC33" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD33" s="7" t="s">
+      <c r="AE33" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AE33" s="7" t="s">
+      <c r="AF33" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AF33" s="7" t="s">
+      <c r="AG33" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AG33" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="AH33" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
       <c r="B34" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE34" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AA34" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC34" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD34" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE34" s="7" t="s">
+      <c r="AF34" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AF34" s="7" t="s">
+      <c r="AG34" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AG34" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="AH34" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AA35" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB35" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC35" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD35" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE35" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF35" s="7" t="s">
+      <c r="AG35" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AG35" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="AH35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
       <c r="A38" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
       <c r="B43" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA43" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AA43" s="7" t="s">
+      <c r="AB43" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AB43" s="7" t="s">
+      <c r="AC43" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AC43" s="7" t="s">
+      <c r="AD43" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AD43" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="AE43" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF43" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:34" ht="24" customHeight="1">
       <c r="A45" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA47" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AA47" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="AB47" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="24" customHeight="1">
       <c r="A49" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="A50" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="24" customHeight="1">
       <c r="B51" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA51" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AA51" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="AB51" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="24" customHeight="1">
       <c r="A53" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
       <c r="A54" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24" customHeight="1">
       <c r="B55" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA55" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AA55" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="AB55" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="24" customHeight="1">
       <c r="A57" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
       <c r="A58" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24" customHeight="1">
       <c r="B59" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA59" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB59" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="24" customHeight="1">
       <c r="A61" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
       <c r="A62" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="24" customHeight="1">
@@ -4657,21 +4679,21 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1"/>
@@ -4682,89 +4704,89 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA75" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB75" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AA75" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB75" s="7" t="s">
+      <c r="AC75" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AC75" s="7" t="s">
+      <c r="AD75" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="AD75" s="7" t="s">
+      <c r="AE75" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AE75" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="AF75" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="A78" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -4772,10 +4794,10 @@
         <v>50</v>
       </c>
       <c r="B82" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -4788,10 +4810,10 @@
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="A86" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
@@ -4799,10 +4821,10 @@
         <v>50</v>
       </c>
       <c r="B87" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -4810,23 +4832,23 @@
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="B92" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -4834,10 +4856,10 @@
         <v>50</v>
       </c>
       <c r="B95" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -4847,15 +4869,15 @@
     </row>
     <row r="97" spans="1:3" ht="178" customHeight="1">
       <c r="B97" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -4863,10 +4885,10 @@
         <v>50</v>
       </c>
       <c r="B100" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -4876,28 +4898,28 @@
     </row>
     <row r="102" spans="1:3" ht="178" customHeight="1">
       <c r="B102" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -4905,23 +4927,23 @@
         <v>50</v>
       </c>
       <c r="B109" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C109" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="B110" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
@@ -4929,23 +4951,23 @@
         <v>50</v>
       </c>
       <c r="B113" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="B114" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="A116" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
@@ -4953,10 +4975,10 @@
         <v>50</v>
       </c>
       <c r="B117" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -4966,25 +4988,25 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="B119" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="A122" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
       <c r="B123" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="A125" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>49</v>
@@ -4995,23 +5017,23 @@
         <v>50</v>
       </c>
       <c r="B126" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C126" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="A129" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
@@ -5019,23 +5041,23 @@
         <v>50</v>
       </c>
       <c r="B130" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B133" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -5043,34 +5065,34 @@
         <v>50</v>
       </c>
       <c r="B134" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C134" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
       <c r="B135" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B137" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="C138" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -5080,21 +5102,21 @@
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B141" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B142" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C142" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -5104,45 +5126,45 @@
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="A145" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B145" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="A146" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C146" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="B147" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="A149" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B149" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="A150" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B150" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C150" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
@@ -5152,23 +5174,23 @@
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="A154" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B154" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="B154" s="13" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
       <c r="B155" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B157" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -5176,10 +5198,10 @@
         <v>50</v>
       </c>
       <c r="B158" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C158" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
@@ -5189,15 +5211,15 @@
     </row>
     <row r="160" spans="1:3" ht="178" customHeight="1">
       <c r="B160" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
       <c r="A162" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B162" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
@@ -5205,10 +5227,10 @@
         <v>50</v>
       </c>
       <c r="B163" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C163" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -5221,10 +5243,10 @@
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B167" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5232,10 +5254,10 @@
         <v>50</v>
       </c>
       <c r="B168" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C168" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -5248,10 +5270,10 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B172" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -5259,10 +5281,10 @@
         <v>50</v>
       </c>
       <c r="B173" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C173" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5275,23 +5297,23 @@
     </row>
     <row r="178" spans="1:32" ht="24" customHeight="1">
       <c r="A178" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B178" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="B178" s="13" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="179" spans="1:32" ht="24" customHeight="1">
       <c r="B179" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="181" spans="1:32" ht="24" customHeight="1">
       <c r="A181" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="182" spans="1:32" ht="24" customHeight="1">
@@ -5299,10 +5321,10 @@
         <v>50</v>
       </c>
       <c r="B182" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C182" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="183" spans="1:32" ht="24" customHeight="1">
@@ -5315,21 +5337,21 @@
     </row>
     <row r="186" spans="1:32" ht="24" customHeight="1">
       <c r="A186" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B186" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="187" spans="1:32" ht="24" customHeight="1">
       <c r="A187" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B187" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C187" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="188" spans="1:32" ht="24" customHeight="1">
@@ -5340,30 +5362,30 @@
     <row r="189" spans="1:32" ht="24" customHeight="1">
       <c r="B189" s="12"/>
       <c r="AA189" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB189" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="AB189" s="7" t="s">
+      <c r="AC189" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="AC189" s="7" t="s">
+      <c r="AD189" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="AD189" s="7" t="s">
+      <c r="AE189" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="AE189" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="AF189" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="191" spans="1:32" ht="24" customHeight="1">
       <c r="A191" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B191" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="192" spans="1:32" ht="24" customHeight="1">
@@ -5371,10 +5393,10 @@
         <v>50</v>
       </c>
       <c r="B192" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C192" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
@@ -5387,10 +5409,10 @@
     </row>
     <row r="196" spans="1:3" ht="24" customHeight="1">
       <c r="A196" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B196" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="B196" s="10" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
@@ -5398,10 +5420,10 @@
         <v>50</v>
       </c>
       <c r="B197" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C197" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
@@ -5414,26 +5436,26 @@
     </row>
     <row r="201" spans="1:3" ht="24" customHeight="1">
       <c r="A201" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B201" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="B201" s="10" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="24" customHeight="1">
       <c r="A202" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B202" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C202" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="24" customHeight="1">
       <c r="B203" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5493,20 +5515,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>272</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>49</v>
@@ -5517,20 +5539,20 @@
         <v>50</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>60</v>
@@ -5541,10 +5563,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5554,237 +5576,237 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>282</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="A17" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>285</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA19" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="AA19" s="7" t="s">
+      <c r="AB19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC19" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="AB19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC19" s="7" t="s">
+      <c r="AD19" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="AD19" s="7" t="s">
+      <c r="AE19" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AE19" s="7" t="s">
+      <c r="AF19" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="AF19" s="7" t="s">
+      <c r="AG19" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="AG19" s="7" t="s">
+      <c r="AH19" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="AH19" s="7" t="s">
+      <c r="AI19" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="AI19" s="7" t="s">
+      <c r="AJ19" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="AJ19" s="7" t="s">
+      <c r="AK19" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="AK19" s="7" t="s">
+      <c r="AL19" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="AL19" s="7" t="s">
+      <c r="AM19" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="AM19" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="AN19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="24" customHeight="1">
       <c r="A21" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="24" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
       <c r="B23" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="24" customHeight="1">
       <c r="B27" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="24" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
       <c r="B31" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA31" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="AA31" s="7" t="s">
+      <c r="AB31" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="AB31" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="AC31" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AD31" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="24" customHeight="1">
       <c r="A33" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="24" customHeight="1">
       <c r="A34" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="24" customHeight="1">
       <c r="B35" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA35" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="AA35" s="7" t="s">
+      <c r="AB35" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC35" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="AB35" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC35" s="7" t="s">
+      <c r="AD35" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="AD35" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="AE35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="24" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1">
       <c r="A38" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>324</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
       <c r="B39" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB39" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="AA39" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB39" s="7" t="s">
+      <c r="AC39" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="AC39" s="7" t="s">
+      <c r="AD39" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="AD39" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="AE39" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5829,20 +5851,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>330</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>49</v>
@@ -5853,20 +5875,20 @@
         <v>50</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
       <c r="B6" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>60</v>
@@ -5877,10 +5899,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5893,118 +5915,118 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA15" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="AA15" s="7" t="s">
+      <c r="AB15" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC15" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="AB15" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC15" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="AD15" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>347</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="B23" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB23" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="AA23" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB23" s="7" t="s">
+      <c r="AC23" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="AC23" s="7" t="s">
+      <c r="AD23" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="AD23" s="7" t="s">
+      <c r="AE23" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="AE23" s="7" t="s">
+      <c r="AF23" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="AF23" s="7" t="s">
+      <c r="AG23" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="AG23" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="AH23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="A25" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>360</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
@@ -6014,113 +6036,113 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>364</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
       <c r="A34" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="12"/>
       <c r="AA35" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB35" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="AB35" s="7" t="s">
-        <v>371</v>
-      </c>
       <c r="AC35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
       <c r="A38" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB39" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="AA39" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB39" s="7" t="s">
+      <c r="AC39" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="AC39" s="7" t="s">
+      <c r="AD39" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="AD39" s="7" t="s">
+      <c r="AE39" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="AE39" s="7" t="s">
+      <c r="AF39" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="AF39" s="7" t="s">
+      <c r="AG39" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="AG39" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="AH39" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>376</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -6130,70 +6152,70 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="A50" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>383</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA51" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="AA51" s="7" t="s">
+      <c r="AB51" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC51" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="AB51" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="AC51" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="AD51" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>389</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -6201,23 +6223,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>391</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>394</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -6225,15 +6247,15 @@
         <v>50</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>396</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -6278,20 +6300,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>399</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>49</v>
@@ -6302,20 +6324,20 @@
         <v>50</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>403</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>60</v>
@@ -6326,10 +6348,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>407</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6342,53 +6364,53 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>409</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="24" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
       <c r="B19" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA19" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="AA19" s="7" t="s">
-        <v>416</v>
-      </c>
       <c r="AB19" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>417</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -6396,71 +6418,71 @@
         <v>50</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>419</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
       <c r="B23" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>422</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
       <c r="B27" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>427</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>430</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>432</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -6470,45 +6492,45 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>434</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>436</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>440</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -6518,7 +6540,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>49</v>
@@ -6529,34 +6551,34 @@
         <v>50</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>443</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>445</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
       <c r="A50" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>447</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6567,27 +6589,27 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="12"/>
       <c r="AA52" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB52" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="AB52" s="7" t="s">
+      <c r="AC52" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="AC52" s="7" t="s">
+      <c r="AD52" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="AD52" s="7" t="s">
-        <v>452</v>
-      </c>
       <c r="AE52" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>453</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6595,33 +6617,33 @@
         <v>50</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
       <c r="B56" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>458</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>49</v>
@@ -6632,39 +6654,39 @@
         <v>50</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="B64" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="B68" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -6699,8 +6721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK127"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -6713,20 +6735,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>467</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>49</v>
@@ -6737,20 +6759,20 @@
         <v>50</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>471</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
       <c r="B6" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>60</v>
@@ -6761,10 +6783,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -6777,227 +6799,227 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>478</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB15" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="AA15" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="AB15" s="7" t="s">
+      <c r="AC15" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="AC15" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>483</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>486</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>488</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB23" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="AA23" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="AB23" s="7" t="s">
+      <c r="AC23" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AC23" s="7" t="s">
+      <c r="AD23" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="AD23" s="7" t="s">
+      <c r="AE23" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="AE23" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="AF23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>496</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="AB27" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="AA27" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="AB27" s="7" t="s">
-        <v>499</v>
-      </c>
       <c r="AC27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>500</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>502</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB31" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="AA31" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="AB31" s="7" t="s">
+      <c r="AC31" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="AC31" s="7" t="s">
-        <v>506</v>
-      </c>
       <c r="AD31" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>507</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>511</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="AB39" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="AA39" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="AB39" s="7" t="s">
+      <c r="AC39" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="AC39" s="7" t="s">
-        <v>515</v>
-      </c>
       <c r="AD39" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>518</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -7007,10 +7029,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>520</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -7018,10 +7040,10 @@
         <v>50</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>522</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -7029,10 +7051,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>524</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -7040,10 +7062,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>526</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7053,243 +7075,243 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>530</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="B55" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>532</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>535</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>537</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>539</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>541</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
       <c r="B67" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>543</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>547</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA75" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB75" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC75" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD75" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="AA75" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="AB75" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="AC75" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="AD75" s="7" t="s">
+      <c r="AE75" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="AE75" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="AF75" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="A78" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>550</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA79" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="AB79" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="AA79" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="AB79" s="7" t="s">
-        <v>499</v>
-      </c>
       <c r="AC79" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="A82" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B82" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>553</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA83" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB83" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="AA83" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="AB83" s="7" t="s">
+      <c r="AC83" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="AC83" s="7" t="s">
-        <v>506</v>
-      </c>
       <c r="AD83" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>555</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="A90" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>559</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
@@ -7297,48 +7319,46 @@
         <v>513</v>
       </c>
       <c r="AA91" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="AB91" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="AB91" s="7" t="s">
+      <c r="AC91" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="AC91" s="7" t="s">
-        <v>515</v>
-      </c>
       <c r="AD91" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B94" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
-      <c r="B95" s="12">
-        <v>2000</v>
-      </c>
+      <c r="B95" s="12"/>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7346,136 +7366,138 @@
         <v>50</v>
       </c>
       <c r="B98" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C98" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="C98" s="11" t="s">
-        <v>566</v>
-      </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="12"/>
+      <c r="B99" s="12" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B102" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>568</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="B103" s="12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B106" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="C106" s="11" t="s">
         <v>571</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="B110" s="13" t="s">
         <v>573</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
       <c r="A114" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B114" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C114" s="11" t="s">
         <v>577</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AA115" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AB115" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>580</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B118" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="C118" s="11" t="s">
         <v>582</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
       <c r="B119" s="12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>584</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -7483,23 +7505,23 @@
         <v>50</v>
       </c>
       <c r="B122" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>586</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
       <c r="B123" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>589</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -7507,15 +7529,15 @@
         <v>50</v>
       </c>
       <c r="B126" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C126" s="11" t="s">
         <v>591</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
       <c r="B127" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -7568,20 +7590,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>593</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>49</v>
@@ -7592,20 +7614,20 @@
         <v>50</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>597</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>60</v>
@@ -7616,10 +7638,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>601</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7632,122 +7654,122 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>606</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>608</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
       <c r="B19" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>610</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>614</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA27" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="AA27" s="7" t="s">
+      <c r="AB27" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="AC27" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="AB27" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="AC27" s="7" t="s">
+      <c r="AD27" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="AD27" s="7" t="s">
+      <c r="AE27" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="AE27" s="7" t="s">
+      <c r="AF27" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="AF27" s="7" t="s">
+      <c r="AG27" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="AG27" s="7" t="s">
+      <c r="AH27" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="AH27" s="7" t="s">
-        <v>623</v>
-      </c>
       <c r="AI27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>624</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>626</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7755,21 +7777,21 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>629</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7777,10 +7799,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>631</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7788,10 +7810,10 @@
         <v>50</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>633</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
@@ -7799,85 +7821,85 @@
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>635</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
       <c r="A46" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>639</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA47" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="AA47" s="7" t="s">
+      <c r="AB47" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="AC47" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="AB47" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="AC47" s="7" t="s">
+      <c r="AD47" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="AD47" s="7" t="s">
+      <c r="AE47" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="AE47" s="7" t="s">
+      <c r="AF47" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="AF47" s="7" t="s">
+      <c r="AG47" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="AG47" s="7" t="s">
+      <c r="AH47" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="AH47" s="7" t="s">
-        <v>623</v>
-      </c>
       <c r="AI47" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>642</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7885,21 +7907,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>645</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7907,10 +7929,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7918,10 +7940,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>648</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -7929,59 +7951,59 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>650</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>653</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>655</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA67" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="AA67" s="7" t="s">
+      <c r="AB67" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="AC67" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="AB67" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="AC67" s="7" t="s">
-        <v>659</v>
-      </c>
       <c r="AD67" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>660</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7989,140 +8011,140 @@
         <v>50</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>662</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="B71" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>665</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>667</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>669</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>671</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="B79" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>673</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
       <c r="A86" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>677</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA87" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AB87" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC87" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AD87" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE87" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="AE87" s="7" t="s">
+      <c r="AF87" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="AF87" s="7" t="s">
-        <v>623</v>
-      </c>
       <c r="AG87" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
       <c r="A90" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>681</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -8130,34 +8152,34 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>683</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="A94" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B94" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>685</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
       <c r="B95" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -8165,92 +8187,92 @@
         <v>50</v>
       </c>
       <c r="B98" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="C98" s="11" t="s">
         <v>688</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="B99" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>691</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="A106" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B106" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="C106" s="11" t="s">
         <v>695</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA107" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AB107" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC107" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AD107" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE107" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="AE107" s="7" t="s">
+      <c r="AF107" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="AF107" s="7" t="s">
-        <v>623</v>
-      </c>
       <c r="AG107" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B110" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="C110" s="11" t="s">
         <v>698</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -8258,10 +8280,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -8269,23 +8291,23 @@
         <v>50</v>
       </c>
       <c r="B114" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="C114" s="11" t="s">
         <v>701</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="B115" s="12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -8293,15 +8315,15 @@
         <v>50</v>
       </c>
       <c r="B118" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="C118" s="11" t="s">
         <v>705</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="B119" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -8354,20 +8376,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>707</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>49</v>
@@ -8378,10 +8400,10 @@
         <v>50</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>711</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8389,7 +8411,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>60</v>
@@ -8400,10 +8422,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>714</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8416,105 +8438,105 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>716</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>720</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="AA19" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="AA19" s="7" t="s">
+      <c r="AB19" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="AB19" s="7" t="s">
+      <c r="AC19" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="AC19" s="7" t="s">
+      <c r="AD19" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="AD19" s="7" t="s">
+      <c r="AE19" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="AE19" s="7" t="s">
+      <c r="AF19" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="AF19" s="7" t="s">
-        <v>728</v>
-      </c>
       <c r="AG19" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AH19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>729</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>731</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="B23" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>733</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>60</v>
@@ -8525,10 +8547,10 @@
         <v>50</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>737</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
@@ -8541,54 +8563,54 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>739</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="AA36" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="AB36" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="AA36" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="AB36" s="7" t="s">
-        <v>744</v>
-      </c>
       <c r="AC36" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>745</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>747</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8598,10 +8620,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>749</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8609,10 +8631,10 @@
         <v>50</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>751</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
